--- a/Zimmet Tutanağı.xlsx
+++ b/Zimmet Tutanağı.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Diğer bilgisayarlar\TU01KONBLGHV\Drive\Dosyalar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\zimmet_takip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DCA4A3-D935-4BAE-B451-AE80D0D86B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21C3F1D2-9E07-4AE8-8503-6CD71D36E362}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Zimmet" sheetId="1" r:id="rId1"/>
     <sheet name="Liste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>ZİMMET TUTANAĞI FORMU</t>
   </si>
@@ -59,12 +58,6 @@
   </si>
   <si>
     <t>TESLİM EDEN</t>
-  </si>
-  <si>
-    <t>Hacı Veli Ataşoğlu</t>
-  </si>
-  <si>
-    <t>Bilgi İşlem Uzman Yrd.</t>
   </si>
   <si>
     <t>Yukarıda cinsi, markası, modeli, belirtilen demirbaşları sadece şirket işleri için kullanacağımı, özel işlerim için kullanmayacağımı, aksi söz konusu olduğunda fatura tutarının ve olabilecek maddi hasarın maaş hesabımdan kesileceğini eksiksiz olarak teslim edilen ve ayrıca garanti kapsamına girmeyen, kullanıcı hatasından kaynaklanan arızaların tamirinden sorumlu olduğumu şimdiden kabul ettiğimi beyan ve taahhüt ederim.</t>
@@ -144,46 +137,13 @@
     <t>Açıklamalar</t>
   </si>
   <si>
-    <t>Muhasebe Müdürlüğü</t>
-  </si>
-  <si>
-    <t>Muhasebe Sorumlusu</t>
-  </si>
-  <si>
-    <t>A053282</t>
-  </si>
-  <si>
-    <t>Münir Can Taşkıran</t>
-  </si>
-  <si>
-    <t>Laptop Bilgisayar</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>Logitech Kablosuz Mouse</t>
-  </si>
-  <si>
-    <t>Logitech</t>
-  </si>
-  <si>
-    <t>M330</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>Latitude 3520</t>
-  </si>
-  <si>
-    <t>SN:DJLMXL3</t>
-  </si>
-  <si>
-    <t>Latitude 3510</t>
-  </si>
-  <si>
-    <t>SN:F4WJ963</t>
+    <t>04.06.2025</t>
+  </si>
+  <si>
+    <t>Ad Soyad</t>
+  </si>
+  <si>
+    <t>Görev</t>
   </si>
   <si>
     <r>
@@ -208,38 +168,17 @@
         <family val="2"/>
         <charset val="162"/>
       </rPr>
-      <t xml:space="preserve">  tarihinde, şirket çalışanı </t>
+      <t xml:space="preserve">  tarihinde, şirket çalışanı ****** ’ a teslim edilmiştir.</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>Münir Can TAŞKIRAN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>’ a teslim edilmiştir.</t>
-    </r>
-  </si>
-  <si>
-    <t>04.06.2025</t>
+  </si>
+  <si>
+    <t>Görevi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,12 +336,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -417,21 +371,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,22 +732,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EEDF71-DB4A-4517-BD40-9179F3743D22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:K6"/>
+      <selection activeCell="A28" sqref="A28:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="9.85546875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="3" width="9.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="9.88671875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.109375" style="1"/>
+    <col min="11" max="11" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -866,153 +805,145 @@
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="A10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
@@ -1028,142 +959,110 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17" t="s">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-    </row>
-    <row r="19" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-    </row>
-    <row r="20" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+    </row>
+    <row r="20" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>4</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-    </row>
-    <row r="22" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>5</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
@@ -1181,47 +1080,47 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+    <row r="27" spans="1:15" ht="12" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="A28" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
+      <c r="A30" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
@@ -1239,83 +1138,83 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+    <row r="34" spans="1:11" ht="12" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="39" spans="1:11" ht="12" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="42" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-    </row>
-    <row r="45" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="22" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+    </row>
+    <row r="45" spans="1:11" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B45" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="H45" s="22" t="s">
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="H45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+    </row>
+    <row r="46" spans="1:11" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B46" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="H46" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+    </row>
+    <row r="49" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J49" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-    </row>
-    <row r="46" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="H46" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-    </row>
-    <row r="49" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J49" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" s="21"/>
+      <c r="K49" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -1376,45 +1275,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5B2014-D62D-46AB-9377-A2B517342A00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="8" customWidth="1"/>
     <col min="5" max="5" width="22" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="6" max="6" width="23.88671875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1422,41 +1321,41 @@
         <v>45791</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>

--- a/Zimmet Tutanağı.xlsx
+++ b/Zimmet Tutanağı.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>ZİMMET TUTANAĞI FORMU</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Görevi</t>
+  </si>
+  <si>
+    <t>Hacı Veli ATAŞOĞLU</t>
   </si>
 </sst>
 </file>
@@ -735,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -1082,7 +1085,7 @@
     </row>
     <row r="27" spans="1:15" ht="12" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -1200,7 +1203,7 @@
     </row>
     <row r="46" spans="1:11" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B46" s="27" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -1269,7 +1272,7 @@
     <mergeCell ref="A10:K15"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.23622047244094491" top="0.35433070866141736" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
